--- a/outputs-r202/test-f__F082.xlsx
+++ b/outputs-r202/test-f__F082.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="25">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="50" uniqueCount="25">
   <si>
     <t>Row</t>
   </si>
@@ -109,7 +109,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="3">
+  <borders count="5">
     <border>
       <left/>
       <right/>
@@ -119,14 +119,18 @@
     </border>
     <border/>
     <border/>
+    <border/>
+    <border/>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="1" xfId="0" applyNumberFormat="true"/>
     <xf numFmtId="22" fontId="0" fillId="0" borderId="2" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="0" fillId="0" borderId="3" xfId="0" applyNumberFormat="true"/>
+    <xf numFmtId="22" fontId="0" fillId="0" borderId="4" xfId="0" applyNumberFormat="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -155,212 +159,212 @@
   </cols>
   <sheetData>
     <row r="1">
-      <c r="A1" s="1" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="1" t="s">
+      <c r="A1" s="3" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="C1" s="1" t="s">
+      <c r="C1" s="3" t="s">
         <v>14</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="3" t="s">
         <v>15</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="3" t="s">
         <v>16</v>
       </c>
-      <c r="F1" s="1" t="s">
+      <c r="F1" s="3" t="s">
         <v>17</v>
       </c>
-      <c r="G1" s="1" t="s">
+      <c r="G1" s="3" t="s">
         <v>18</v>
       </c>
-      <c r="H1" s="1" t="s">
+      <c r="H1" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="I1" s="1" t="s">
+      <c r="I1" s="3" t="s">
         <v>20</v>
       </c>
-      <c r="J1" s="1" t="s">
+      <c r="J1" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="K1" s="1" t="s">
+      <c r="K1" s="3" t="s">
         <v>22</v>
       </c>
-      <c r="L1" s="1" t="s">
+      <c r="L1" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="M1" s="1" t="s">
+      <c r="M1" s="3" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="s">
+      <c r="A2" s="3" t="s">
         <v>1</v>
       </c>
       <c r="B2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="C2">
-        <v>2.2204459837272066e-14</v>
+        <v>0.03558036058879601</v>
       </c>
       <c r="D2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="E2">
-        <v>0.99999967540107204</v>
+        <v>0.96441955828503856</v>
       </c>
       <c r="F2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="G2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="H2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="I2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="J2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="K2">
-        <v>2.2204459837272066e-14</v>
+        <v>2.2200294289889508e-14</v>
       </c>
       <c r="L2">
-        <v>3.2459872797979098e-07</v>
+        <v>8.1125987668439849e-08</v>
       </c>
       <c r="M2">
         <v>4</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="s">
+      <c r="A3" s="3" t="s">
         <v>2</v>
       </c>
       <c r="B3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="C3">
-        <v>2.2204460149267053e-14</v>
+        <v>0.035580361437818515</v>
       </c>
       <c r="D3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="E3">
-        <v>0.99999982996235182</v>
+        <v>0.96441955831988901</v>
       </c>
       <c r="F3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="G3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="H3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="I3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="J3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="K3">
-        <v>2.2204460149267053e-14</v>
+        <v>2.2200294278261275e-14</v>
       </c>
       <c r="L3">
-        <v>1.7003744832782982e-07</v>
+        <v>8.0242115047810264e-08</v>
       </c>
       <c r="M3">
         <v>4</v>
       </c>
     </row>
     <row r="4">
-      <c r="A4" s="1" t="s">
+      <c r="A4" s="3" t="s">
         <v>3</v>
       </c>
       <c r="B4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="C4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="D4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="E4">
-        <v>0.99999999999973921</v>
+        <v>0.9999999999872129</v>
       </c>
       <c r="F4">
-        <v>4.8860726404289366e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="G4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="H4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="I4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="J4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="K4">
-        <v>2.2204460492502247e-14</v>
+        <v>2.2204460492476912e-14</v>
       </c>
       <c r="L4">
-        <v>3.4411618286842972e-14</v>
+        <v>1.2587320283965435e-11</v>
       </c>
       <c r="M4">
         <v>4</v>
       </c>
     </row>
     <row r="5">
-      <c r="A5" s="1" t="s">
+      <c r="A5" s="3" t="s">
         <v>4</v>
       </c>
       <c r="B5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="C5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="D5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="E5">
-        <v>0.99999985154608984</v>
+        <v>0.99999999979622078</v>
       </c>
       <c r="F5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="G5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="H5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="I5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="J5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="K5">
-        <v>2.2204460192835677e-14</v>
+        <v>2.220446049209138e-14</v>
       </c>
       <c r="L5">
-        <v>1.4845371032966032e-07</v>
+        <v>2.0357939067363573e-10</v>
       </c>
       <c r="M5">
         <v>4</v>
       </c>
     </row>
     <row r="6">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
         <v>5</v>
       </c>
       <c r="B6">
@@ -401,7 +405,7 @@
       </c>
     </row>
     <row r="7">
-      <c r="A7" s="1" t="s">
+      <c r="A7" s="3" t="s">
         <v>6</v>
       </c>
       <c r="B7">
@@ -442,89 +446,89 @@
       </c>
     </row>
     <row r="8">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>7</v>
       </c>
       <c r="B8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="C8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="D8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="E8">
-        <v>0.94719808733393018</v>
+        <v>0.99999999975880771</v>
       </c>
       <c r="F8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="G8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="H8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="I8">
-        <v>0.052801912613151945</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="J8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="K8">
-        <v>2.2200497673860474e-14</v>
+        <v>2.2204460492015861e-14</v>
       </c>
       <c r="L8">
-        <v>5.2740437081463852e-11</v>
+        <v>2.4099254193425464e-10</v>
       </c>
       <c r="M8">
         <v>4</v>
       </c>
     </row>
     <row r="9">
-      <c r="A9" s="1" t="s">
+      <c r="A9" s="3" t="s">
         <v>8</v>
       </c>
       <c r="B9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="C9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="D9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="E9">
-        <v>0.99999999999969158</v>
+        <v>1</v>
       </c>
       <c r="F9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="G9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="H9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="I9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="J9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="K9">
-        <v>2.2204460492502105e-14</v>
+        <v>0</v>
       </c>
       <c r="L9">
-        <v>1.0868225002140732e-13</v>
+        <v>0</v>
       </c>
       <c r="M9">
         <v>4</v>
       </c>
     </row>
     <row r="10">
-      <c r="A10" s="1" t="s">
+      <c r="A10" s="3" t="s">
         <v>9</v>
       </c>
       <c r="B10">
@@ -565,89 +569,89 @@
       </c>
     </row>
     <row r="11">
-      <c r="A11" s="1" t="s">
+      <c r="A11" s="3" t="s">
         <v>10</v>
       </c>
       <c r="B11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="C11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="D11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="E11">
-        <v>0.99999999983467258</v>
+        <v>0.99999999996270894</v>
       </c>
       <c r="F11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="G11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="H11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="I11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="J11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="K11">
-        <v>2.2204460492168998e-14</v>
+        <v>2.2204460492427451e-14</v>
       </c>
       <c r="L11">
-        <v>1.6512766061370202e-10</v>
+        <v>3.7091156677673591e-11</v>
       </c>
       <c r="M11">
         <v>4</v>
       </c>
     </row>
     <row r="12">
-      <c r="A12" s="1" t="s">
+      <c r="A12" s="3" t="s">
         <v>11</v>
       </c>
       <c r="B12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="C12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="D12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="E12">
-        <v>0.99999999999972733</v>
+        <v>0.99999999999962064</v>
       </c>
       <c r="F12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="G12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="H12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="I12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="J12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="K12">
-        <v>2.2204460492502175e-14</v>
+        <v>2.2204460492501957e-14</v>
       </c>
       <c r="L12">
-        <v>7.2848340114928132e-14</v>
+        <v>1.7945826248034659e-13</v>
       </c>
       <c r="M12">
         <v>4</v>
       </c>
     </row>
     <row r="13">
-      <c r="A13" s="1" t="s">
+      <c r="A13" s="3" t="s">
         <v>12</v>
       </c>
       <c r="B13">
